--- a/PatientAppAutomation/src/main/resources/TestData/PatientAppData.xlsx
+++ b/PatientAppAutomation/src/main/resources/TestData/PatientAppData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15255" windowHeight="3375" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15300" windowHeight="2745"/>
   </bookViews>
   <sheets>
     <sheet name="AddFamilyMember" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="LabReports" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:O9"/>
+  <oleSize ref="A1:N7"/>
 </workbook>
 </file>
 
@@ -37,31 +37,31 @@
     <t>Tyagi</t>
   </si>
   <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Corona</t>
+  </si>
+  <si>
+    <t>Typhoid</t>
+  </si>
+  <si>
+    <t>4/4/2002</t>
+  </si>
+  <si>
+    <t>Aadil Ali</t>
+  </si>
+  <si>
     <t>Male</t>
   </si>
   <si>
     <t>Brother</t>
   </si>
   <si>
-    <t>4/4/1994</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Corona</t>
-  </si>
-  <si>
-    <t>Typhoid</t>
-  </si>
-  <si>
-    <t>10/02/2021</t>
-  </si>
-  <si>
-    <t>Sam</t>
+    <t>19/02/2021</t>
   </si>
 </sst>
 </file>
@@ -397,8 +397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -428,19 +428,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -453,7 +453,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -464,18 +464,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -487,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -499,18 +499,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
